--- a/pred_ohlcv/54_23/2019-10-11 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-11 TRUE ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -553,7 +553,7 @@
         <v>264</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>263</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>266</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>266</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>267</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>265</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1059,10 +1059,10 @@
         <v>271</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1082,10 +1082,10 @@
         <v>268</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1427,10 +1427,10 @@
         <v>276</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1450,10 +1450,10 @@
         <v>272</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1473,10 +1473,10 @@
         <v>270</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1496,10 +1496,10 @@
         <v>270</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1519,10 +1519,10 @@
         <v>268</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1542,10 +1542,10 @@
         <v>273</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2899,10 +2899,10 @@
         <v>269</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2945,10 +2945,10 @@
         <v>270</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2968,10 +2968,10 @@
         <v>274</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2991,10 +2991,10 @@
         <v>275</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3014,10 +3014,10 @@
         <v>274</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3037,10 +3037,10 @@
         <v>273</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3244,10 +3244,10 @@
         <v>275</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3267,10 +3267,10 @@
         <v>273</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3290,10 +3290,10 @@
         <v>274</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3428,10 +3428,10 @@
         <v>269</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3474,10 +3474,10 @@
         <v>271</v>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3497,10 +3497,10 @@
         <v>274</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3520,10 +3520,10 @@
         <v>269</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3543,10 +3543,10 @@
         <v>277</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3566,10 +3566,10 @@
         <v>271</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3589,10 +3589,10 @@
         <v>274</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3612,10 +3612,10 @@
         <v>272</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3635,10 +3635,10 @@
         <v>272</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3681,10 +3681,10 @@
         <v>271</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>